--- a/gold-standard-dataset.xlsx
+++ b/gold-standard-dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\febert\Documents\workspaces\confusion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\febert\Documents\confusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,40 +31,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Ebert, F.</author>
-  </authors>
-  <commentList>
-    <comment ref="A62" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ebert, F.:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-code_review:118548</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="1587">
   <si>
@@ -5647,7 +5613,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5675,19 +5641,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -10444,11 +10397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="A349" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14828,6 +14781,5 @@
   </sheetData>
   <autoFilter ref="A1:C397"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>